--- a/gd/副本内容设计/新怪物技能逻辑.xlsx
+++ b/gd/副本内容设计/新怪物技能逻辑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
   <si>
     <t>新怪物需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,129 +376,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中单体治疗</t>
+  </si>
+  <si>
+    <t>血量低于XX%，智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方单体力量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方群体提升速度，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度永久增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方单体防御力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用buff技能概率驱散己方debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用治疗技能概率驱散己方dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗几率附加物理、法术吸收护盾（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强单体物理木属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体木属性物理伤害概率附加木属性弱dot（点到爽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，给敌方全体上木属性强dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体木法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久单体智力提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单体法术水属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强单体法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光属性中dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体上光属性强dot（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击时，一定几率附加一个法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强单体法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次死亡时回复自身%体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方单体速度下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体光法术伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击造成伤害时几率附加敌方智力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中单体物理光属性伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中单体治疗</t>
-  </si>
-  <si>
-    <t>群体治疗几率附加法术减免护盾（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用法攻技能，概率附加hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于XX%，智力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于XX%，智力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方单体力量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方群体提升速度，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度永久增加10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方单体防御力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用buff技能概率驱散己方debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用治疗技能概率驱散己方dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体治疗几率附加物理、法术吸收护盾（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强单体物理木属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体木属性物理伤害概率附加木属性弱dot（点到爽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时，给敌方全体上木属性强dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体木法术纯伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久单体智力提升10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中单体法术水属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强单体法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光属性中dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给敌方群体上光属性强dot（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击时，一定几率附加一个法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强单体法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次死亡时回复自身%体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方单体速度下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体光法术伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击造成伤害时几率附加敌方智力下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中单体物理光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中单体法术光属性伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,6 +500,34 @@
   </si>
   <si>
     <t>群体法术光属性伤害概率附加禁疗效果（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中斩/刺/砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中球/柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强斩/刺/砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物攻技能，概率附加眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体光属性物理伤害（自动）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1196,13 +1212,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -1249,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
@@ -1257,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -1287,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
@@ -1301,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>93</v>
+      <c r="G36" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
@@ -1315,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1329,13 +1345,13 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
@@ -1343,13 +1359,13 @@
         <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -1434,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
@@ -1448,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -1468,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
@@ -1476,13 +1492,13 @@
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
@@ -1490,13 +1506,13 @@
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
@@ -1560,7 +1576,7 @@
         <v>39</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -1587,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
@@ -1595,7 +1611,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
@@ -1695,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E77" s="3"/>
     </row>
@@ -1704,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E78" s="4"/>
     </row>
@@ -1770,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
@@ -1778,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -1786,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
@@ -1794,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
@@ -1878,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
@@ -1886,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
@@ -1951,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
@@ -1959,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
@@ -1967,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
@@ -1975,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
@@ -2040,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
@@ -2121,7 +2137,7 @@
         <v>39</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
@@ -2129,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
@@ -2137,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
@@ -2145,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.15">
@@ -2153,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本内容设计/新怪物技能逻辑.xlsx
+++ b/gd/副本内容设计/新怪物技能逻辑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
   <si>
     <t>新怪物需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <t>被动技能</t>
   </si>
   <si>
-    <t>xgXXX3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,62 +97,22 @@
     <t>Id</t>
   </si>
   <si>
-    <t>xgXXX4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物1（植物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物2（神怪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgXXX5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgXXX4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物3（神殿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgXXX3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgXXX1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物4（神殿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgXXX4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温迪戈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,23 +308,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力永久增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体暗法术纯伤害（手动，点到爽型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单体治疗</t>
+  </si>
+  <si>
+    <t>血量低于XX%，智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方单体力量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方单体防御力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用buff技能概率驱散己方debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用治疗技能概率驱散己方dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治疗几率附加物理、法术吸收护盾（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强单体物理木属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，给敌方全体上木属性强dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体木法术纯伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单体法术水属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强单体法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光属性中dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体上光属性强dot（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击时，一定几率附加一个法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强单体法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次死亡时回复自身%体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方单体速度下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体光法术伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击造成伤害时几率附加敌方智力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单体物理光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单体法术光属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置技能，敌方群体力量下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方单体力量上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体法术光属性伤害概率附加禁疗效果（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中斩/刺/砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中球/柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强斩/刺/砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体木属性物理伤害概率附加木属性弱dot（点到爽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久单体智力提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgMoguguai4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛布勒斯（神怪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSaibulesi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshou3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshou1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使长（神殿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgTianshizhang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgMoguguai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSaibulesi4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgTianshizhang4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇怪（植物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matango</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力永久增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>群体火属性伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力永久增加10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体暗法术纯伤害（手动，点到爽型）</t>
+    <t>射手（神殿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cerberus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,21 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中单体治疗</t>
-  </si>
-  <si>
-    <t>血量低于XX%，智力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于XX%，智力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方单体力量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>己方群体提升速度，持续3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,135 +535,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>己方单体防御力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用buff技能概率驱散己方debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用治疗技能概率驱散己方dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体治疗几率附加物理、法术吸收护盾（自动）</t>
+    <t>群体光属性物理伤害（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物攻技能，概率附加眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archangel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单体眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强单体物理木属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体木属性物理伤害概率附加木属性弱dot（点到爽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时，给敌方全体上木属性强dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体木法术纯伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久单体智力提升10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中单体法术水属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强单体法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光属性中dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给敌方群体上光属性强dot（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击时，一定几率附加一个法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强单体法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次死亡时回复自身%体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方单体速度下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术水属性伤害并给己方群体添加加速buff（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体光法术伤害（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击造成伤害时几率附加敌方智力下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中单体物理光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中单体法术光属性伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置技能，敌方群体力量下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方单体力量上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术光属性伤害概率附加禁疗效果（自动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中斩/刺/砸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中球/柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强斩/刺/砸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用物攻技能，概率附加眩晕效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体光属性物理伤害（自动）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -918,21 +938,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -940,13 +963,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -954,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -963,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -985,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1005,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1019,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1047,13 +1070,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1061,32 +1084,35 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1094,13 +1120,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
@@ -1108,13 +1134,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -1136,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -1156,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
@@ -1170,13 +1196,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
@@ -1198,13 +1224,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -1212,32 +1238,35 @@
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -1245,13 +1274,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -1259,13 +1288,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
@@ -1273,13 +1302,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -1303,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
@@ -1317,13 +1346,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
@@ -1331,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1345,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
@@ -1359,32 +1388,35 @@
         <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
@@ -1392,13 +1424,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
@@ -1406,13 +1438,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -1450,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
@@ -1464,13 +1496,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -1484,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
@@ -1492,13 +1524,13 @@
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
@@ -1506,27 +1538,27 @@
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="5"/>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
@@ -1535,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -1544,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -1553,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -1562,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -1573,10 +1605,10 @@
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="5"/>
       <c r="C61" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -1585,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -1594,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -1603,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
@@ -1611,21 +1643,21 @@
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -1635,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -1645,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -1655,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -1665,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -1678,10 +1710,10 @@
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -1691,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -1701,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E76" s="3"/>
     </row>
@@ -1711,7 +1743,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E77" s="3"/>
     </row>
@@ -1720,21 +1752,21 @@
         <v>13</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
@@ -1742,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
@@ -1750,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
@@ -1758,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
@@ -1766,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
@@ -1775,10 +1807,10 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
@@ -1786,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
@@ -1794,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -1802,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
@@ -1810,20 +1842,20 @@
         <v>13</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C94" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
@@ -1831,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
@@ -1839,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
@@ -1858,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
@@ -1870,7 +1902,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
@@ -1878,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
@@ -1886,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
@@ -1894,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
@@ -1902,20 +1934,20 @@
         <v>13</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C107" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
@@ -1923,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
@@ -1931,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
@@ -1939,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
@@ -1947,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -1956,10 +1988,10 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
@@ -1967,7 +1999,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
@@ -1975,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
@@ -1983,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
@@ -1991,20 +2023,20 @@
         <v>13</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C120" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
@@ -2012,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
@@ -2020,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
@@ -2028,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.15">
@@ -2036,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
@@ -2045,10 +2077,10 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C126" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
@@ -2056,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
@@ -2064,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.15">
@@ -2072,7 +2104,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.15">
@@ -2080,12 +2112,12 @@
         <v>13</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.15">
@@ -2093,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.15">
@@ -2101,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.15">
@@ -2109,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.15">
@@ -2117,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.15">
@@ -2125,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.15">
@@ -2134,10 +2166,10 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C139" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
@@ -2145,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
@@ -2153,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
@@ -2161,7 +2193,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.15">
@@ -2169,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本内容设计/新怪物技能逻辑.xlsx
+++ b/gd/副本内容设计/新怪物技能逻辑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="152">
   <si>
     <t>新怪物需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +548,70 @@
   </si>
   <si>
     <t>单体眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgBingxuenvwang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强球/柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体造成XX%的水属性伤害概率附带减速效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击具有减益效果几率附带眩晕效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +702,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2204,6 +2271,104 @@
         <v>102</v>
       </c>
     </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B146" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B147" s="6"/>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B148" s="6"/>
+      <c r="C148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B149" s="6"/>
+      <c r="C149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B150" s="6"/>
+      <c r="C150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B151" s="6"/>
+      <c r="C151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B153" s="6"/>
+      <c r="C153" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B154" s="6"/>
+      <c r="C154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B155" s="6"/>
+      <c r="C155" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B156" s="6"/>
+      <c r="C156" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B157" s="6"/>
+      <c r="C157" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/副本内容设计/新怪物技能逻辑.xlsx
+++ b/gd/副本内容设计/新怪物技能逻辑.xlsx
@@ -611,7 +611,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法术攻击具有减益效果几率附带眩晕效果</t>
+    <t>法术攻击几率附加减益效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/gd/副本内容设计/新怪物技能逻辑.xlsx
+++ b/gd/副本内容设计/新怪物技能逻辑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="153">
   <si>
     <t>新怪物需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgSheshou3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xgSheshou1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +608,14 @@
   </si>
   <si>
     <t>法术攻击几率附加减益效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshouzuo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshouzuo1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1005,18 +1009,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -1143,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1157,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1167,7 +1171,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -1179,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1297,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -1316,24 +1320,24 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -1441,13 +1445,13 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
@@ -1455,35 +1459,35 @@
         <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
@@ -1597,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
@@ -2273,7 +2277,7 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.15">
@@ -2282,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.15">
@@ -2291,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.15">
@@ -2300,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.15">
@@ -2309,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.15">
@@ -2318,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.15">
@@ -2327,46 +2331,46 @@
     <row r="153" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B153" s="6"/>
       <c r="C153" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B154" s="6"/>
       <c r="C154" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B155" s="6"/>
       <c r="C155" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B156" s="6"/>
       <c r="C156" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B157" s="6"/>
       <c r="C157" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
